--- a/biology/Médecine/Vincent_Abbadie/Vincent_Abbadie.xlsx
+++ b/biology/Médecine/Vincent_Abbadie/Vincent_Abbadie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vincent Abbadie, né le 26 mai 1737 à Pujo et mort le 18 mars 1814[1] à Châteauneuf, est un chirurgien de marine français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vincent Abbadie, né le 26 mai 1737 à Pujo et mort le 18 mars 1814 à Châteauneuf, est un chirurgien de marine français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après l’étude de la philosophie, Abbadie suivit son goût pour la chirurgie, qui devint sa profession. L’étude de l’anatomie fut le premier objet de son attention dans les hôpitaux de Bayonne, qu’il fréquenta pendant plusieurs années. Les troupes, qui formaient la garnison de cette ville, lui fournirent l’occasion de connaître les maladies chirurgicales et les moyens d’y remédier sous les yeux des chefs. II subit plusieurs examens, après lesquels il obtint des lettres qui constatèrent sa capacité, et lui permirent de s’embarquer.
 Après son voyage, il vint à Paris dans la vue de se perfectionner. II y suivit les cours des professeurs des écoles de chirurgie. Admis au nombre des élèves de l’Hôpital général, il se mit en état de concourir pour y gagner sa maîtrise : de huit concurrents qui furent examinés publiquement en 1763, il n’y en eut que trois qui furent jugés également capables de remplir les places vacantes : il était de ce nombre. L’égalité de mérite, prononcée par les examinateurs, fit pencher la balance pour le plus ancien, mais l’administration voulut, par une délibération, que Vincent Abbadie fit les fonctions du gagnant en son absence, et lui confia le traitement des malades de l’hôpital de Bicêtre, où il continua de cultiver la chirurgie pendant plusieurs années.
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sur la fermentation des mélanges alimentaires ;
 Sur la nature et les propriétés de l’air fixe ;
